--- a/roadmaps/BSCS.xlsx
+++ b/roadmaps/BSCS.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/037c70bc1895faa0/Desktop/tts_v2/roadmaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{6B3F8C4B-D6D3-4750-88EF-FB05B2E57CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A73E004-63D0-4EBE-8079-54A3278D5224}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{6B3F8C4B-D6D3-4750-88EF-FB05B2E57CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21187A2B-9074-4321-B925-9B051B6D3E9C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{F459EF9F-2A88-4E6A-8CB1-B148DF59868A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{F459EF9F-2A88-4E6A-8CB1-B148DF59868A}"/>
   </bookViews>
   <sheets>
     <sheet name="Roadmap" sheetId="1" r:id="rId1"/>
     <sheet name="Rooms" sheetId="2" r:id="rId2"/>
     <sheet name="StudentCapacity" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="118">
   <si>
     <t>semester</t>
   </si>
@@ -374,43 +373,22 @@
     <t>University Elective 2</t>
   </si>
   <si>
-    <t>Room Cs 1</t>
-  </si>
-  <si>
-    <t>Room Cs 2</t>
-  </si>
-  <si>
-    <t>Room Cs 3</t>
-  </si>
-  <si>
-    <t>Room Cs 4</t>
-  </si>
-  <si>
-    <t>Room Cs 5</t>
-  </si>
-  <si>
-    <t>Room Cs 6</t>
-  </si>
-  <si>
-    <t>Room Cs 7</t>
-  </si>
-  <si>
-    <t>Room Cs 8</t>
-  </si>
-  <si>
-    <t>TotalStudents</t>
-  </si>
-  <si>
-    <t>TotalLabRoom</t>
-  </si>
-  <si>
-    <t>TotalTheoryGiven</t>
-  </si>
-  <si>
-    <t>TotalTheoryRequired</t>
-  </si>
-  <si>
-    <t>TotalLabRoomRequired</t>
+    <t>CS_Room1</t>
+  </si>
+  <si>
+    <t>CS_Room2</t>
+  </si>
+  <si>
+    <t>CS_Room3</t>
+  </si>
+  <si>
+    <t>CS_Room4</t>
+  </si>
+  <si>
+    <t>CS_Room5</t>
+  </si>
+  <si>
+    <t>CS_Room6</t>
   </si>
 </sst>
 </file>
@@ -2103,10 +2081,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E74563-0568-487F-BB23-56B37A40D077}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2172,23 +2150,23 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -2196,7 +2174,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -2204,7 +2182,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
@@ -2212,7 +2190,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
@@ -2220,7 +2198,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
@@ -2228,7 +2206,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
         <v>69</v>
@@ -2236,7 +2214,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
@@ -2244,25 +2222,9 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2277,7 +2239,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2303,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>550</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2319,7 +2281,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>450</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2335,7 +2297,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2351,60 +2313,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA538D0-77AE-4C3D-8CDD-438BF00A97C6}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <f>SUM(StudentCapacity!B2:B9)</f>
-        <v>1636</v>
-      </c>
-      <c r="B2">
-        <f>COUNTIF(Rooms!B2:B69,"theory")</f>
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <f>COUNTIF(Rooms!B2:B69,"lab")</f>
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
